--- a/base/BASE DE RANKING ARA CARLOS ASESORES CASTIGO.xlsx
+++ b/base/BASE DE RANKING ARA CARLOS ASESORES CASTIGO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Documents\CallCenter-Excel\CLIENTE-IDE\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AE06423-F20A-4FBC-89BA-B3941D8AB8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723C2C8E-196F-4FF4-BA36-A575A1DB26AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19710" windowHeight="11760" xr2:uid="{E926F50C-D8AA-47FC-905D-F14B334B058A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E926F50C-D8AA-47FC-905D-F14B334B058A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>72623639</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t xml:space="preserve">FECHA INGRESO </t>
+  </si>
+  <si>
+    <t>FECHA SALIDA</t>
   </si>
 </sst>
 </file>
@@ -211,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -531,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1CB20E-55DB-4A23-8965-AFA8DFEB97E2}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,9 +546,10 @@
     <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -564,8 +568,11 @@
       <c r="F1" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +592,7 @@
         <v>45684</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -605,7 +612,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -625,7 +632,7 @@
         <v>45763</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -645,7 +652,7 @@
         <v>45811</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -665,7 +672,7 @@
         <v>45882</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -685,7 +692,7 @@
         <v>45908</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -705,7 +712,7 @@
         <v>45919</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -725,7 +732,7 @@
         <v>45918</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -745,7 +752,7 @@
         <v>45922</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -765,7 +772,7 @@
         <v>45958</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -785,7 +792,7 @@
         <v>45982</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
